--- a/NAS structure&permission.xlsx
+++ b/NAS structure&permission.xlsx
@@ -2410,8 +2410,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="586480"/>
-          <a:ext cx="2832268" cy="245775"/>
+          <a:off x="3632200" y="586276"/>
+          <a:ext cx="2832690" cy="245811"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2425,13 +2425,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="122887"/>
+                <a:pt x="0" y="122905"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2832268" y="122887"/>
+                <a:pt x="2832690" y="122905"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2832268" y="245775"/>
+                <a:pt x="2832690" y="245811"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2471,8 +2471,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="586480"/>
-          <a:ext cx="1416134" cy="245775"/>
+          <a:off x="3632200" y="586276"/>
+          <a:ext cx="1416345" cy="245811"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2486,13 +2486,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="122887"/>
+                <a:pt x="0" y="122905"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1416134" y="122887"/>
+                <a:pt x="1416345" y="122905"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1416134" y="245775"/>
+                <a:pt x="1416345" y="245811"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2532,8 +2532,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3592830" y="586480"/>
-          <a:ext cx="91440" cy="245775"/>
+          <a:off x="3586480" y="586276"/>
+          <a:ext cx="91440" cy="245811"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2547,7 +2547,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="245775"/>
+                <a:pt x="45720" y="245811"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2587,8 +2587,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1754272" y="1417434"/>
-          <a:ext cx="175553" cy="2200274"/>
+          <a:off x="1747641" y="1417354"/>
+          <a:ext cx="175579" cy="2200602"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2602,10 +2602,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2200274"/>
+                <a:pt x="0" y="2200602"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="175553" y="2200274"/>
+                <a:pt x="175579" y="2200602"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2645,8 +2645,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1754272" y="1417434"/>
-          <a:ext cx="175553" cy="1369319"/>
+          <a:off x="1747641" y="1417354"/>
+          <a:ext cx="175579" cy="1369523"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2660,10 +2660,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1369319"/>
+                <a:pt x="0" y="1369523"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="175553" y="1369319"/>
+                <a:pt x="175579" y="1369523"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2703,8 +2703,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1754272" y="1417434"/>
-          <a:ext cx="175553" cy="538365"/>
+          <a:off x="1747641" y="1417354"/>
+          <a:ext cx="175579" cy="538445"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2718,10 +2718,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="538365"/>
+                <a:pt x="0" y="538445"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="175553" y="538365"/>
+                <a:pt x="175579" y="538445"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2761,8 +2761,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2222415" y="586480"/>
-          <a:ext cx="1416134" cy="245775"/>
+          <a:off x="2215854" y="586276"/>
+          <a:ext cx="1416345" cy="245811"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2773,16 +2773,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1416134" y="0"/>
+                <a:pt x="1416345" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1416134" y="122887"/>
+                <a:pt x="1416345" y="122905"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122887"/>
+                <a:pt x="0" y="122905"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="245775"/>
+                <a:pt x="0" y="245811"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2822,8 +2822,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="338138" y="1417434"/>
-          <a:ext cx="175553" cy="2200274"/>
+          <a:off x="331296" y="1417354"/>
+          <a:ext cx="175579" cy="2200602"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2837,10 +2837,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2200274"/>
+                <a:pt x="0" y="2200602"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="175553" y="2200274"/>
+                <a:pt x="175579" y="2200602"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2880,8 +2880,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="338138" y="1417434"/>
-          <a:ext cx="175553" cy="1369319"/>
+          <a:off x="331296" y="1417354"/>
+          <a:ext cx="175579" cy="1369523"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2895,10 +2895,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1369319"/>
+                <a:pt x="0" y="1369523"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="175553" y="1369319"/>
+                <a:pt x="175579" y="1369523"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2938,8 +2938,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="338138" y="1417434"/>
-          <a:ext cx="175553" cy="538365"/>
+          <a:off x="331296" y="1417354"/>
+          <a:ext cx="175579" cy="538445"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2953,10 +2953,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="538365"/>
+                <a:pt x="0" y="538445"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="175553" y="538365"/>
+                <a:pt x="175579" y="538445"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2996,8 +2996,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="806281" y="586480"/>
-          <a:ext cx="2832268" cy="245775"/>
+          <a:off x="799509" y="586276"/>
+          <a:ext cx="2832690" cy="245811"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3008,16 +3008,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2832268" y="0"/>
+                <a:pt x="2832690" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2832268" y="122887"/>
+                <a:pt x="2832690" y="122905"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122887"/>
+                <a:pt x="0" y="122905"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="245775"/>
+                <a:pt x="0" y="245811"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3057,8 +3057,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3053370" y="1300"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="3046933" y="1009"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3139,8 +3139,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3053370" y="1300"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="3046933" y="1009"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEE14234-C286-0D4A-B9A9-896AF527BB41}">
@@ -3150,8 +3150,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="221102" y="832255"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="214243" y="832088"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3233,8 +3233,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="221102" y="832255"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="214243" y="832088"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{09479FE4-17D3-3D4D-89DD-9D0118BC5459}">
@@ -3244,8 +3244,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="513692" y="1663210"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="506876" y="1663166"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3327,8 +3327,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="513692" y="1663210"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="506876" y="1663166"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{576AD026-FA86-9D47-945F-9D41AA85DAFC}">
@@ -3338,8 +3338,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="513692" y="2494165"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="506876" y="2494245"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3420,8 +3420,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="513692" y="2494165"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="506876" y="2494245"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AC2699B6-9776-0B4C-9E73-2095B3E8DFD9}">
@@ -3431,8 +3431,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="513692" y="3325119"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="506876" y="3325323"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3514,8 +3514,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="513692" y="3325119"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="506876" y="3325323"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1D883E04-96AE-FF44-96FA-893541BBA94B}">
@@ -3525,8 +3525,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1637236" y="832255"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="1630588" y="832088"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3608,8 +3608,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1637236" y="832255"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="1630588" y="832088"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C9B577B5-FFB0-1F4B-8AB6-2FEF4A0DA495}">
@@ -3619,8 +3619,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1929826" y="1663210"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="1923221" y="1663166"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3702,8 +3702,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1929826" y="1663210"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="1923221" y="1663166"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{615A06BD-4341-9641-8BBA-5B24F74160C8}">
@@ -3713,8 +3713,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1929826" y="2494165"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="1923221" y="2494245"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3796,8 +3796,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1929826" y="2494165"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="1923221" y="2494245"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E8B8BD76-5F44-6D45-891D-A4DEA8CEE147}">
@@ -3807,8 +3807,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1929826" y="3325119"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="1923221" y="3325323"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3890,8 +3890,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1929826" y="3325119"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="1923221" y="3325323"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{26D847E1-30F5-AD4B-8D56-696603E7AEA5}">
@@ -3901,8 +3901,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3053370" y="832255"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="3046933" y="832088"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3984,8 +3984,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3053370" y="832255"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="3046933" y="832088"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4ACFA342-43CB-5144-B712-DE0184FBCEE8}">
@@ -3995,8 +3995,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4469504" y="832255"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="4463278" y="832088"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4078,8 +4078,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4469504" y="832255"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="4463278" y="832088"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1ADBEC4D-ECE9-D04A-9812-56C404ADE37D}">
@@ -4089,8 +4089,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5885638" y="832255"/>
-          <a:ext cx="1170358" cy="585179"/>
+          <a:off x="5879623" y="832088"/>
+          <a:ext cx="1170533" cy="585266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4172,8 +4172,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5885638" y="832255"/>
-        <a:ext cx="1170358" cy="585179"/>
+        <a:off x="5879623" y="832088"/>
+        <a:ext cx="1170533" cy="585266"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6720,7 +6720,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6728,13 +6728,23 @@
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
